--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52D0257-F8A4-4001-AC4B-11419E952822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76E4CA-876F-477F-869D-ADE9E3296139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="690" windowWidth="4710" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="1425" windowWidth="10125" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A172"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,6 +2848,104 @@
         <v>30294</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>192334</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1039</v>
+      </c>
+      <c r="D173" s="1">
+        <v>30296</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>194029</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1695</v>
+      </c>
+      <c r="D174" s="1">
+        <v>30305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>195633</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1604</v>
+      </c>
+      <c r="D175" s="1">
+        <v>30312</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>197921</v>
+      </c>
+      <c r="C176" s="3">
+        <v>2288</v>
+      </c>
+      <c r="D176" s="1">
+        <v>30324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>199956</v>
+      </c>
+      <c r="C177" s="3">
+        <v>2035</v>
+      </c>
+      <c r="D177" s="1">
+        <v>30325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>201990</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2034</v>
+      </c>
+      <c r="D178" s="1">
+        <v>30326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>202775</v>
+      </c>
+      <c r="C179" s="3">
+        <v>785</v>
+      </c>
+      <c r="D179" s="1">
+        <v>30340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76E4CA-876F-477F-869D-ADE9E3296139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C3531-EDFB-47AE-AB4F-08C89AEF3731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1425" windowWidth="10125" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15945" yWindow="3855" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,6 +2946,132 @@
         <v>30340</v>
       </c>
     </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>204172</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1397</v>
+      </c>
+      <c r="D180" s="1">
+        <v>30354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>206696</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2524</v>
+      </c>
+      <c r="D181" s="1">
+        <v>30371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>209365</v>
+      </c>
+      <c r="C182" s="3">
+        <v>2669</v>
+      </c>
+      <c r="D182" s="1">
+        <v>30388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>212211</v>
+      </c>
+      <c r="C183" s="3">
+        <v>2846</v>
+      </c>
+      <c r="D183" s="1">
+        <v>30405</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>215521</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3310</v>
+      </c>
+      <c r="D184" s="1">
+        <v>30409</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>218536</v>
+      </c>
+      <c r="C185" s="3">
+        <v>3015</v>
+      </c>
+      <c r="D185" s="1">
+        <v>30410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>219029</v>
+      </c>
+      <c r="C186" s="3">
+        <v>493</v>
+      </c>
+      <c r="D186" s="1">
+        <v>30434</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>221267</v>
+      </c>
+      <c r="C187" s="3">
+        <v>2238</v>
+      </c>
+      <c r="D187" s="1">
+        <v>30451</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>225043</v>
+      </c>
+      <c r="C188" s="3">
+        <v>376</v>
+      </c>
+      <c r="D188" s="1">
+        <v>30468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C3531-EDFB-47AE-AB4F-08C89AEF3731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA7245-51D7-48C2-A554-A755D0D03784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15945" yWindow="3855" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,10 +3066,66 @@
         <v>225043</v>
       </c>
       <c r="C188" s="3">
-        <v>376</v>
+        <v>3776</v>
       </c>
       <c r="D188" s="1">
         <v>30468</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>229814</v>
+      </c>
+      <c r="C189" s="3">
+        <v>4771</v>
+      </c>
+      <c r="D189" s="1">
+        <v>30480</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>234400</v>
+      </c>
+      <c r="C190" s="3">
+        <v>4586</v>
+      </c>
+      <c r="D190" s="1">
+        <v>30503</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>238002</v>
+      </c>
+      <c r="C191" s="3">
+        <v>3602</v>
+      </c>
+      <c r="D191" s="1">
+        <v>30512</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>242899</v>
+      </c>
+      <c r="C192" s="3">
+        <v>4897</v>
+      </c>
+      <c r="D192" s="1">
+        <v>30513</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA7245-51D7-48C2-A554-A755D0D03784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66146C27-C913-4C05-A089-F108C204CA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="3045" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15825" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,6 +3128,62 @@
         <v>30513</v>
       </c>
     </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>244854</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1955</v>
+      </c>
+      <c r="D193" s="1">
+        <v>30528</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>248158</v>
+      </c>
+      <c r="C194" s="3">
+        <v>3304</v>
+      </c>
+      <c r="D194" s="1">
+        <v>30544</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>253587</v>
+      </c>
+      <c r="C195" s="3">
+        <v>5429</v>
+      </c>
+      <c r="D195" s="1">
+        <v>30544</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>259698</v>
+      </c>
+      <c r="C196" s="3">
+        <v>6111</v>
+      </c>
+      <c r="D196" s="1">
+        <v>30576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66146C27-C913-4C05-A089-F108C204CA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A267D634-2071-4A58-8DC5-A07AFF387827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,6 +3184,48 @@
         <v>30576</v>
       </c>
     </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>267077</v>
+      </c>
+      <c r="C197" s="3">
+        <v>7379</v>
+      </c>
+      <c r="D197" s="1">
+        <v>30596</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>272530</v>
+      </c>
+      <c r="C198" s="3">
+        <v>5453</v>
+      </c>
+      <c r="D198" s="1">
+        <v>30602</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>277943</v>
+      </c>
+      <c r="C199" s="3">
+        <v>5413</v>
+      </c>
+      <c r="D199" s="1">
+        <v>30606</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Franta.xlsx
+++ b/Database/Csaki/Franta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC2235-DC1D-45B9-A956-99195587B535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48E578-82CD-4CF2-8C36-6368185168F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="1725" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="120" windowWidth="15165" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="Daily_cases_1" localSheetId="0">Sheet1!$C$3:$C$171</definedName>
     <definedName name="Deaths" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Deaths_1" localSheetId="0">Sheet1!$D$2:$D$172</definedName>
+    <definedName name="New_Text_Document" localSheetId="0">Sheet1!$HA$2:$HA$4</definedName>
     <definedName name="Total_cases" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Total_cases_1" localSheetId="0">Sheet1!$B$2:$B$172</definedName>
   </definedNames>
@@ -50,7 +51,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{D3755ED3-4FA9-4163-B567-E7DA5BC1DF3A}" name="Total cases1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{0BFF99FA-3D1B-4A52-8F58-DD04DDD9F000}" name="New Text Document" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{D3755ED3-4FA9-4163-B567-E7DA5BC1DF3A}" name="Total cases1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\Total cases.txt">
       <textFields>
         <textField/>
@@ -156,15 +164,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document" connectionId="3" xr16:uid="{A88C5420-1FD9-4A62-9ED4-948421CD4B91}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases_1" connectionId="1" xr16:uid="{61676102-BF03-405E-ABDF-EA5E62D0AC87}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths_1" connectionId="2" xr16:uid="{ED91B24B-2124-4F9A-AD0D-75BF9DB50200}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases_1" connectionId="3" xr16:uid="{9FEA9107-003A-4188-8AB4-EAFFFEF03781}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases_1" connectionId="4" xr16:uid="{9FEA9107-003A-4188-8AB4-EAFFFEF03781}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,15 +442,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GY4"/>
+  <dimension ref="A1:HY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GO1" workbookViewId="0">
-      <selection activeCell="GP1" sqref="GP1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="209" max="209" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:207" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:233" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1060,8 +1075,86 @@
       <c r="GY1">
         <v>206</v>
       </c>
+      <c r="GZ1">
+        <v>207</v>
+      </c>
+      <c r="HA1">
+        <v>208</v>
+      </c>
+      <c r="HB1">
+        <v>209</v>
+      </c>
+      <c r="HC1">
+        <v>210</v>
+      </c>
+      <c r="HD1">
+        <v>211</v>
+      </c>
+      <c r="HE1">
+        <v>212</v>
+      </c>
+      <c r="HF1">
+        <v>213</v>
+      </c>
+      <c r="HG1">
+        <v>214</v>
+      </c>
+      <c r="HH1">
+        <v>215</v>
+      </c>
+      <c r="HI1">
+        <v>216</v>
+      </c>
+      <c r="HJ1">
+        <v>217</v>
+      </c>
+      <c r="HK1">
+        <v>218</v>
+      </c>
+      <c r="HL1">
+        <v>219</v>
+      </c>
+      <c r="HM1">
+        <v>220</v>
+      </c>
+      <c r="HN1">
+        <v>221</v>
+      </c>
+      <c r="HO1">
+        <v>222</v>
+      </c>
+      <c r="HP1">
+        <v>223</v>
+      </c>
+      <c r="HQ1">
+        <v>224</v>
+      </c>
+      <c r="HR1">
+        <v>225</v>
+      </c>
+      <c r="HS1">
+        <v>226</v>
+      </c>
+      <c r="HT1">
+        <v>227</v>
+      </c>
+      <c r="HU1">
+        <v>228</v>
+      </c>
+      <c r="HV1">
+        <v>229</v>
+      </c>
+      <c r="HW1">
+        <v>230</v>
+      </c>
+      <c r="HX1">
+        <v>231</v>
+      </c>
+      <c r="HY1">
+        <v>232</v>
+      </c>
     </row>
-    <row r="2" spans="1:207" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:233" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1683,8 +1776,86 @@
       <c r="GY2" s="2">
         <v>328980</v>
       </c>
+      <c r="GZ2" s="2">
+        <v>335524</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>344101</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>353944</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>363350</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>373911</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>381094</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>387252</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>395104</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>404888</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>415481</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>428696</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>442194</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>452763</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>458061</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>468069</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>481141</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>497237</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>513034</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>527446</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>538569</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>542639</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>550690</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>563535</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>577505</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>589653</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>606625</v>
+      </c>
     </row>
-    <row r="3" spans="1:207" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:233" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2306,8 +2477,86 @@
       <c r="GY3" s="3">
         <v>4203</v>
       </c>
+      <c r="GZ3" s="3">
+        <v>6544</v>
+      </c>
+      <c r="HA3" s="3">
+        <v>8577</v>
+      </c>
+      <c r="HB3" s="3">
+        <v>9843</v>
+      </c>
+      <c r="HC3" s="3">
+        <v>9406</v>
+      </c>
+      <c r="HD3" s="3">
+        <v>10561</v>
+      </c>
+      <c r="HE3" s="3">
+        <v>7183</v>
+      </c>
+      <c r="HF3" s="3">
+        <v>6158</v>
+      </c>
+      <c r="HG3" s="3">
+        <v>7852</v>
+      </c>
+      <c r="HH3" s="3">
+        <v>9784</v>
+      </c>
+      <c r="HI3" s="3">
+        <v>10593</v>
+      </c>
+      <c r="HJ3" s="3">
+        <v>13215</v>
+      </c>
+      <c r="HK3" s="3">
+        <v>13498</v>
+      </c>
+      <c r="HL3" s="3">
+        <v>10569</v>
+      </c>
+      <c r="HM3" s="3">
+        <v>5298</v>
+      </c>
+      <c r="HN3" s="3">
+        <v>10008</v>
+      </c>
+      <c r="HO3" s="3">
+        <v>13072</v>
+      </c>
+      <c r="HP3" s="3">
+        <v>16096</v>
+      </c>
+      <c r="HQ3" s="3">
+        <v>15797</v>
+      </c>
+      <c r="HR3" s="3">
+        <v>14412</v>
+      </c>
+      <c r="HS3" s="3">
+        <v>11123</v>
+      </c>
+      <c r="HT3" s="3">
+        <v>4070</v>
+      </c>
+      <c r="HU3" s="3">
+        <v>8051</v>
+      </c>
+      <c r="HV3" s="3">
+        <v>12845</v>
+      </c>
+      <c r="HW3" s="3">
+        <v>13970</v>
+      </c>
+      <c r="HX3" s="3">
+        <v>12148</v>
+      </c>
+      <c r="HY3" s="3">
+        <v>16792</v>
+      </c>
     </row>
-    <row r="4" spans="1:207" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:233" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2928,9 +3177,88 @@
       </c>
       <c r="GY4" s="1">
         <v>30726</v>
+      </c>
+      <c r="GZ4" s="1">
+        <v>30764</v>
+      </c>
+      <c r="HA4" s="1">
+        <v>30794</v>
+      </c>
+      <c r="HB4" s="1">
+        <v>30813</v>
+      </c>
+      <c r="HC4" s="1">
+        <v>30893</v>
+      </c>
+      <c r="HD4" s="1">
+        <v>30910</v>
+      </c>
+      <c r="HE4" s="1">
+        <v>30916</v>
+      </c>
+      <c r="HF4" s="1">
+        <v>30950</v>
+      </c>
+      <c r="HG4" s="1">
+        <v>30999</v>
+      </c>
+      <c r="HH4" s="1">
+        <v>31045</v>
+      </c>
+      <c r="HI4" s="1">
+        <v>31095</v>
+      </c>
+      <c r="HJ4" s="1">
+        <v>31248</v>
+      </c>
+      <c r="HK4" s="1">
+        <v>31274</v>
+      </c>
+      <c r="HL4" s="1">
+        <v>31285</v>
+      </c>
+      <c r="HM4" s="1">
+        <v>31338</v>
+      </c>
+      <c r="HN4" s="1">
+        <v>31416</v>
+      </c>
+      <c r="HO4" s="1">
+        <v>31459</v>
+      </c>
+      <c r="HP4" s="1">
+        <v>31511</v>
+      </c>
+      <c r="HQ4" s="1">
+        <v>31661</v>
+      </c>
+      <c r="HR4" s="1">
+        <v>31700</v>
+      </c>
+      <c r="HS4" s="1">
+        <v>31727</v>
+      </c>
+      <c r="HT4" s="1">
+        <v>31808</v>
+      </c>
+      <c r="HU4" s="1">
+        <v>31893</v>
+      </c>
+      <c r="HV4" s="1">
+        <v>31956</v>
+      </c>
+      <c r="HW4" s="1">
+        <v>32019</v>
+      </c>
+      <c r="HX4" s="1">
+        <v>32149</v>
+      </c>
+      <c r="HY4" s="1">
+        <v>32198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>